--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,76 +55,76 @@
     <t>panic</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>heroes</t>
@@ -664,10 +664,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9555555555555556</v>
@@ -796,7 +796,7 @@
         <v>147</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9482758620689655</v>
@@ -846,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5">
         <v>0.8803418803418803</v>
@@ -896,7 +896,7 @@
         <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.8636363636363636</v>
@@ -946,7 +946,7 @@
         <v>448</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7">
         <v>0.8611111111111112</v>
@@ -975,28 +975,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.08387096774193549</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="C8">
         <v>13</v>
       </c>
       <c r="D8">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>142</v>
+        <v>1885</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K8">
         <v>0.8461538461538461</v>
@@ -1025,28 +1025,28 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00684931506849315</v>
+        <v>0.004705030763662686</v>
       </c>
       <c r="C9">
         <v>13</v>
       </c>
       <c r="D9">
-        <v>258</v>
+        <v>357</v>
       </c>
       <c r="E9">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1885</v>
+        <v>2750</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9">
         <v>0.84251968503937</v>
@@ -1071,32 +1071,8 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.004705030763662686</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>357</v>
-      </c>
-      <c r="E10">
-        <v>0.96</v>
-      </c>
-      <c r="F10">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2750</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10">
         <v>0.8387096774193549</v>
@@ -1122,7 +1098,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K11">
         <v>0.775</v>
@@ -1148,7 +1124,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.7564102564102564</v>
@@ -1174,7 +1150,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.7142857142857143</v>
@@ -1200,7 +1176,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14">
         <v>0.7017543859649122</v>
@@ -1226,7 +1202,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>0.6923076923076923</v>
@@ -1252,33 +1228,33 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6753246753246753</v>
+        <v>0.6527196652719666</v>
       </c>
       <c r="L16">
         <v>156</v>
       </c>
       <c r="M16">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K17">
         <v>0.6521739130434783</v>
@@ -1304,7 +1280,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18">
         <v>0.6382978723404256</v>
@@ -1330,7 +1306,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.6336633663366337</v>
@@ -1356,7 +1332,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K20">
         <v>0.6263736263736264</v>
@@ -1382,7 +1358,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K21">
         <v>0.5882352941176471</v>
@@ -1408,7 +1384,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22">
         <v>0.5714285714285714</v>
@@ -1434,28 +1410,28 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5657492354740061</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="L23">
         <v>185</v>
       </c>
       <c r="M23">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -2552,7 +2528,7 @@
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K66">
         <v>0.1150234741784038</v>
@@ -2630,7 +2606,7 @@
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K69">
         <v>0.1111829347123465</v>
